--- a/作业1/preprocessed.xlsx
+++ b/作业1/preprocessed.xlsx
@@ -537,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="Y66" sqref="Y66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9051,6 +9051,9 @@
       </c>
       <c r="T67">
         <v>60</v>
+      </c>
+      <c r="U67">
+        <v>8</v>
       </c>
       <c r="V67">
         <v>50</v>
